--- a/data/excel/2025/04/13.xlsx
+++ b/data/excel/2025/04/13.xlsx
@@ -52,15 +52,15 @@
     <t>2025-04-13</t>
   </si>
   <si>
+    <t>45.00</t>
+  </si>
+  <si>
+    <t>Tomato Big(Indian)</t>
+  </si>
+  <si>
     <t>50.00</t>
   </si>
   <si>
-    <t>45.00</t>
-  </si>
-  <si>
-    <t>Tomato Big(Indian)</t>
-  </si>
-  <si>
     <t>Tomato Small(Local)</t>
   </si>
   <si>
@@ -124,12 +124,12 @@
     <t>8.00</t>
   </si>
   <si>
+    <t>Cabbage</t>
+  </si>
+  <si>
     <t>17.67</t>
   </si>
   <si>
-    <t>Cabbage</t>
-  </si>
-  <si>
     <t>Cauli Local</t>
   </si>
   <si>
@@ -151,18 +151,18 @@
     <t>Brinjal Round</t>
   </si>
   <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
     <t>70.00</t>
   </si>
   <si>
     <t>Cow pea(Long)</t>
   </si>
   <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>60.00</t>
-  </si>
-  <si>
     <t>65.00</t>
   </si>
   <si>
@@ -181,21 +181,21 @@
     <t>French Bean(Rajma)</t>
   </si>
   <si>
+    <t>85.00</t>
+  </si>
+  <si>
     <t>Sword Bean</t>
   </si>
   <si>
     <t>90.00</t>
   </si>
   <si>
-    <t>85.00</t>
+    <t>Bitter Gourd</t>
   </si>
   <si>
     <t>55.00</t>
   </si>
   <si>
-    <t>Bitter Gourd</t>
-  </si>
-  <si>
     <t>Bottle Gourd</t>
   </si>
   <si>
@@ -241,12 +241,12 @@
     <t>Christophine</t>
   </si>
   <si>
+    <t>Brd Leaf Mustard</t>
+  </si>
+  <si>
     <t>66.67</t>
   </si>
   <si>
-    <t>Brd Leaf Mustard</t>
-  </si>
-  <si>
     <t>Spinach Leaf</t>
   </si>
   <si>
@@ -286,16 +286,19 @@
     <t>133.33</t>
   </si>
   <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>326.67</t>
+  </si>
+  <si>
     <t>Mushroom(Button)</t>
   </si>
   <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>300.00</t>
-  </si>
-  <si>
-    <t>326.67</t>
+    <t>466.67</t>
   </si>
   <si>
     <t>Asparagus</t>
@@ -304,9 +307,6 @@
     <t>600.00</t>
   </si>
   <si>
-    <t>466.67</t>
-  </si>
-  <si>
     <t>Neuro</t>
   </si>
   <si>
@@ -316,15 +316,15 @@
     <t>Sugarbeet</t>
   </si>
   <si>
+    <t>166.67</t>
+  </si>
+  <si>
     <t>Drumstick</t>
   </si>
   <si>
     <t>180.00</t>
   </si>
   <si>
-    <t>166.67</t>
-  </si>
-  <si>
     <t>220.00</t>
   </si>
   <si>
@@ -352,15 +352,15 @@
     <t>Celery</t>
   </si>
   <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>276.67</t>
+  </si>
+  <si>
     <t>Parseley</t>
   </si>
   <si>
-    <t>250.00</t>
-  </si>
-  <si>
-    <t>276.67</t>
-  </si>
-  <si>
     <t>Fennel Leaf</t>
   </si>
   <si>
@@ -370,18 +370,18 @@
     <t>Turnip A</t>
   </si>
   <si>
+    <t>160.00</t>
+  </si>
+  <si>
+    <t>165.00</t>
+  </si>
+  <si>
+    <t>Tamarind</t>
+  </si>
+  <si>
     <t>170.00</t>
   </si>
   <si>
-    <t>160.00</t>
-  </si>
-  <si>
-    <t>165.00</t>
-  </si>
-  <si>
-    <t>Tamarind</t>
-  </si>
-  <si>
     <t>Bamboo Shoot</t>
   </si>
   <si>
@@ -409,15 +409,15 @@
     <t>Apple(Fuji)</t>
   </si>
   <si>
+    <t>140.00</t>
+  </si>
+  <si>
     <t>Banana</t>
   </si>
   <si>
     <t>Per Dozen</t>
   </si>
   <si>
-    <t>140.00</t>
-  </si>
-  <si>
     <t>255.00</t>
   </si>
   <si>
@@ -484,16 +484,22 @@
     <t>Mombin</t>
   </si>
   <si>
+    <t>Sugarcane</t>
+  </si>
+  <si>
     <t>Per Piece</t>
   </si>
   <si>
-    <t>Sugarcane</t>
+    <t>226.67</t>
   </si>
   <si>
     <t>Strawberry</t>
   </si>
   <si>
-    <t>226.67</t>
+    <t>Kiwi</t>
+  </si>
+  <si>
+    <t>450.00</t>
   </si>
   <si>
     <t>400.00</t>
@@ -502,10 +508,7 @@
     <t>426.67</t>
   </si>
   <si>
-    <t>Kiwi</t>
-  </si>
-  <si>
-    <t>450.00</t>
+    <t>626.67</t>
   </si>
   <si>
     <t>Avocado</t>
@@ -514,9 +517,6 @@
     <t>650.00</t>
   </si>
   <si>
-    <t>626.67</t>
-  </si>
-  <si>
     <t>Amla</t>
   </si>
   <si>
@@ -553,22 +553,22 @@
     <t>Coriander Green</t>
   </si>
   <si>
+    <t>310.00</t>
+  </si>
+  <si>
     <t>Garlic Dry Chinese</t>
   </si>
   <si>
     <t>320.00</t>
   </si>
   <si>
-    <t>310.00</t>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
   </si>
   <si>
     <t>Garlic Dry Nepali</t>
-  </si>
-  <si>
-    <t>280.00</t>
-  </si>
-  <si>
-    <t>290.00</t>
   </si>
   <si>
     <t>Fish Fresh(Rahu)</t>
@@ -953,19 +953,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
@@ -1153,7 +1153,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1165,7 +1165,7 @@
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -1219,7 +1219,7 @@
         <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
         <v>10</v>
@@ -1245,7 +1245,7 @@
         <v>30</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18">
@@ -1313,19 +1313,19 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>47</v>
-      </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22">
@@ -1339,10 +1339,10 @@
         <v>7</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" t="s">
         <v>49</v>
@@ -1359,10 +1359,10 @@
         <v>7</v>
       </c>
       <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
         <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>45</v>
       </c>
       <c r="F23" t="s">
         <v>52</v>
@@ -1379,10 +1379,10 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" t="s">
         <v>47</v>
-      </c>
-      <c r="E24" t="s">
-        <v>45</v>
       </c>
       <c r="F24" t="s">
         <v>52</v>
@@ -1399,10 +1399,10 @@
         <v>7</v>
       </c>
       <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25" t="s">
         <v>47</v>
-      </c>
-      <c r="E25" t="s">
-        <v>45</v>
       </c>
       <c r="F25" t="s">
         <v>52</v>
@@ -1413,19 +1413,19 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
         <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27">
@@ -1433,19 +1433,19 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F27" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="28">
@@ -1459,13 +1459,13 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
       </c>
       <c r="F28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
@@ -1479,13 +1479,13 @@
         <v>7</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -1499,13 +1499,13 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31">
@@ -1519,10 +1519,10 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
         <v>49</v>
@@ -1539,13 +1539,13 @@
         <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33">
@@ -1559,10 +1559,10 @@
         <v>7</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F33" t="s">
         <v>49</v>
@@ -1579,13 +1579,13 @@
         <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
@@ -1639,10 +1639,10 @@
         <v>7</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F37" t="s">
         <v>49</v>
@@ -1659,13 +1659,13 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -1679,10 +1679,10 @@
         <v>7</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
         <v>49</v>
@@ -1699,13 +1699,13 @@
         <v>7</v>
       </c>
       <c r="D40" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41">
@@ -1719,13 +1719,13 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42">
@@ -1739,13 +1739,13 @@
         <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -1753,19 +1753,19 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
         <v>76</v>
-      </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43" t="s">
-        <v>12</v>
-      </c>
-      <c r="F43" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="44">
@@ -1779,10 +1779,10 @@
         <v>7</v>
       </c>
       <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44" t="s">
         <v>47</v>
-      </c>
-      <c r="E44" t="s">
-        <v>45</v>
       </c>
       <c r="F44" t="s">
         <v>52</v>
@@ -1802,7 +1802,7 @@
         <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F45" t="s">
         <v>80</v>
@@ -1839,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48">
@@ -1859,13 +1859,13 @@
         <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
         <v>8</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49">
@@ -1879,13 +1879,13 @@
         <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
         <v>8</v>
       </c>
       <c r="F49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50">
@@ -1902,7 +1902,7 @@
         <v>79</v>
       </c>
       <c r="E50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F50" t="s">
         <v>80</v>
@@ -1933,19 +1933,19 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" t="s">
         <v>90</v>
       </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>91</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>92</v>
-      </c>
-      <c r="F52" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="53">
@@ -1953,19 +1953,19 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" t="s">
+        <v>96</v>
+      </c>
+      <c r="E53" t="s">
+        <v>91</v>
+      </c>
+      <c r="F53" t="s">
         <v>94</v>
-      </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>95</v>
-      </c>
-      <c r="E53" t="s">
-        <v>92</v>
-      </c>
-      <c r="F53" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="54">
@@ -1979,10 +1979,10 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
         <v>47</v>
-      </c>
-      <c r="E54" t="s">
-        <v>45</v>
       </c>
       <c r="F54" t="s">
         <v>52</v>
@@ -1999,10 +1999,10 @@
         <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F55" t="s">
         <v>49</v>
@@ -2019,13 +2019,13 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57">
@@ -2033,19 +2033,19 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C57" t="s">
         <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E57" t="s">
         <v>87</v>
       </c>
       <c r="F57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -2079,10 +2079,10 @@
         <v>7</v>
       </c>
       <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
         <v>47</v>
-      </c>
-      <c r="E59" t="s">
-        <v>45</v>
       </c>
       <c r="F59" t="s">
         <v>52</v>
@@ -2102,7 +2102,7 @@
         <v>49</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F60" t="s">
         <v>108</v>
@@ -2122,10 +2122,10 @@
         <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62">
@@ -2153,19 +2153,19 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
         <v>112</v>
       </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>92</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="F63" t="s">
         <v>113</v>
-      </c>
-      <c r="F63" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="64">
@@ -2179,13 +2179,13 @@
         <v>7</v>
       </c>
       <c r="D64" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65">
@@ -2199,13 +2199,13 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
+        <v>90</v>
+      </c>
+      <c r="E65" t="s">
+        <v>112</v>
+      </c>
+      <c r="F65" t="s">
         <v>91</v>
-      </c>
-      <c r="E65" t="s">
-        <v>113</v>
-      </c>
-      <c r="F65" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="66">
@@ -2219,13 +2219,13 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F66" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="67">
@@ -2233,19 +2233,19 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" t="s">
         <v>121</v>
       </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>118</v>
       </c>
-      <c r="E67" t="s">
+      <c r="F67" t="s">
         <v>119</v>
-      </c>
-      <c r="F67" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -2262,7 +2262,7 @@
         <v>79</v>
       </c>
       <c r="E68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F68" t="s">
         <v>80</v>
@@ -2299,13 +2299,13 @@
         <v>7</v>
       </c>
       <c r="D70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" t="s">
         <v>91</v>
       </c>
-      <c r="E70" t="s">
+      <c r="F70" t="s">
         <v>92</v>
-      </c>
-      <c r="F70" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="71">
@@ -2319,7 +2319,7 @@
         <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
         <v>128</v>
@@ -2339,13 +2339,13 @@
         <v>7</v>
       </c>
       <c r="D72" t="s">
+        <v>90</v>
+      </c>
+      <c r="E72" t="s">
         <v>91</v>
       </c>
-      <c r="E72" t="s">
+      <c r="F72" t="s">
         <v>92</v>
-      </c>
-      <c r="F72" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="73">
@@ -2353,16 +2353,16 @@
         <v>11</v>
       </c>
       <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" t="s">
+        <v>133</v>
+      </c>
+      <c r="D73" t="s">
+        <v>118</v>
+      </c>
+      <c r="E73" t="s">
         <v>131</v>
-      </c>
-      <c r="C73" t="s">
-        <v>132</v>
-      </c>
-      <c r="D73" t="s">
-        <v>119</v>
-      </c>
-      <c r="E73" t="s">
-        <v>133</v>
       </c>
       <c r="F73" t="s">
         <v>87</v>
@@ -2382,7 +2382,7 @@
         <v>136</v>
       </c>
       <c r="E74" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F74" t="s">
         <v>134</v>
@@ -2399,13 +2399,13 @@
         <v>7</v>
       </c>
       <c r="D75" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" t="s">
         <v>91</v>
       </c>
-      <c r="E75" t="s">
+      <c r="F75" t="s">
         <v>92</v>
-      </c>
-      <c r="F75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="76">
@@ -2422,7 +2422,7 @@
         <v>104</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F76" t="s">
         <v>139</v>
@@ -2439,7 +2439,7 @@
         <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E77" t="s">
         <v>128</v>
@@ -2479,10 +2479,10 @@
         <v>7</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F79" t="s">
         <v>49</v>
@@ -2502,7 +2502,7 @@
         <v>104</v>
       </c>
       <c r="E80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F80" t="s">
         <v>139</v>
@@ -2522,7 +2522,7 @@
         <v>104</v>
       </c>
       <c r="E81" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F81" t="s">
         <v>139</v>
@@ -2542,7 +2542,7 @@
         <v>104</v>
       </c>
       <c r="E82" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F82" t="s">
         <v>139</v>
@@ -2562,7 +2562,7 @@
         <v>79</v>
       </c>
       <c r="E83" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F83" t="s">
         <v>80</v>
@@ -2602,7 +2602,7 @@
         <v>79</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F85" t="s">
         <v>80</v>
@@ -2619,13 +2619,13 @@
         <v>7</v>
       </c>
       <c r="D86" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E86" t="s">
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87">
@@ -2645,7 +2645,7 @@
         <v>129</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88">
@@ -2659,13 +2659,13 @@
         <v>7</v>
       </c>
       <c r="D88" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E88" t="s">
         <v>8</v>
       </c>
       <c r="F88" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89">
@@ -2722,7 +2722,7 @@
         <v>79</v>
       </c>
       <c r="E91" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F91" t="s">
         <v>80</v>
@@ -2733,19 +2733,19 @@
         <v>11</v>
       </c>
       <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
         <v>157</v>
-      </c>
-      <c r="C92" t="s">
-        <v>156</v>
       </c>
       <c r="D92" t="s">
         <v>79</v>
       </c>
       <c r="E92" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93">
@@ -2753,19 +2753,19 @@
         <v>11</v>
       </c>
       <c r="B93" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
         <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="94">
@@ -2773,19 +2773,19 @@
         <v>11</v>
       </c>
       <c r="B94" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" t="s">
+        <v>161</v>
+      </c>
+      <c r="E94" t="s">
         <v>162</v>
       </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="F94" t="s">
         <v>163</v>
-      </c>
-      <c r="E94" t="s">
-        <v>160</v>
-      </c>
-      <c r="F94" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="95">
@@ -2793,19 +2793,19 @@
         <v>11</v>
       </c>
       <c r="B95" t="s">
+        <v>165</v>
+      </c>
+      <c r="C95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" t="s">
+        <v>166</v>
+      </c>
+      <c r="E95" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" t="s">
         <v>164</v>
-      </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>165</v>
-      </c>
-      <c r="E95" t="s">
-        <v>95</v>
-      </c>
-      <c r="F95" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="96">
@@ -2859,10 +2859,10 @@
         <v>7</v>
       </c>
       <c r="D98" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E98" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F98" t="s">
         <v>172</v>
@@ -2879,10 +2879,10 @@
         <v>7</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E99" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F99" t="s">
         <v>49</v>
@@ -2899,13 +2899,13 @@
         <v>7</v>
       </c>
       <c r="D100" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F100" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="101">
@@ -2922,7 +2922,7 @@
         <v>79</v>
       </c>
       <c r="E101" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F101" t="s">
         <v>80</v>
@@ -2942,10 +2942,10 @@
         <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103">
@@ -2959,13 +2959,13 @@
         <v>7</v>
       </c>
       <c r="D103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104">
@@ -2979,13 +2979,13 @@
         <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
         <v>87</v>
       </c>
       <c r="F104" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -2993,19 +2993,19 @@
         <v>11</v>
       </c>
       <c r="B105" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" t="s">
+        <v>181</v>
+      </c>
+      <c r="E105" t="s">
+        <v>91</v>
+      </c>
+      <c r="F105" t="s">
         <v>179</v>
-      </c>
-      <c r="C105" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" t="s">
-        <v>180</v>
-      </c>
-      <c r="E105" t="s">
-        <v>92</v>
-      </c>
-      <c r="F105" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="106">
@@ -3013,19 +3013,19 @@
         <v>11</v>
       </c>
       <c r="B106" t="s">
+        <v>184</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" t="s">
+        <v>91</v>
+      </c>
+      <c r="E106" t="s">
         <v>182</v>
       </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>92</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="F106" t="s">
         <v>183</v>
-      </c>
-      <c r="F106" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="107">
@@ -3039,13 +3039,13 @@
         <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E107" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F107" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="108">
@@ -3065,7 +3065,7 @@
         <v>129</v>
       </c>
       <c r="F108" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="109">
@@ -3099,7 +3099,7 @@
         <v>189</v>
       </c>
       <c r="D110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E110" t="s">
         <v>88</v>
@@ -3119,13 +3119,13 @@
         <v>189</v>
       </c>
       <c r="D111" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E111" t="s">
+        <v>182</v>
+      </c>
+      <c r="F111" t="s">
         <v>183</v>
-      </c>
-      <c r="F111" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="112">
